--- a/src/Files/TAXKO_Instruction_Sample_File.xlsx
+++ b/src/Files/TAXKO_Instruction_Sample_File.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pradnya\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pavan\OneDrive\Desktop\Arkonet_pgs\taxko\src\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1164D1E-6332-4AC3-BE07-D422C42C9074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48757317-BC30-4909-BC5D-0F4F136EA318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Income_Tax" sheetId="1" r:id="rId2"/>
     <sheet name="GST" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -509,8 +509,67 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
+            <a:t>Delete</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> the instructions Sheet while uploading.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1200">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-IN" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>Do not change the coloumn names</a:t>
           </a:r>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="en-IN" sz="1200">
             <a:solidFill>
               <a:srgbClr val="C00000"/>
@@ -845,10 +904,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDAD5258-7207-4501-8DD6-341EA082AA16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
@@ -863,7 +922,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1095,7 +1154,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E1048576" xr:uid="{B0A660BC-6B3B-47A7-BF9E-E67D3F8E39E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Business,Service"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1105,11 +1164,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41DB564D-02B9-4367-996D-E1D0C25A2A14}">
-  <dimension ref="B3:L6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B3:O6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1125,9 +1184,10 @@
     <col min="9" max="9" width="12.3984375" customWidth="1"/>
     <col min="10" max="10" width="11.5" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="17.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1161,8 +1221,11 @@
       <c r="L3" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+    </row>
+    <row r="4" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="D4" s="2"/>
       <c r="G4" s="2"/>
@@ -1170,7 +1233,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="D5" s="2"/>
       <c r="G5" s="2"/>
@@ -1178,7 +1241,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="D6" s="2"/>
       <c r="G6" s="2"/>
@@ -1188,7 +1251,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E1048576" xr:uid="{2CCFB450-70AD-4263-AA58-4C7F257E5DC4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Business,Service"</formula1>
     </dataValidation>
   </dataValidations>
